--- a/municipal/ძირითადი ინფორმაცია/ადმინისტრაციული მოწყობა/აჭარა/ქობულეთი.xlsx
+++ b/municipal/ძირითადი ინფორმაცია/ადმინისტრაციული მოწყობა/აჭარა/ქობულეთი.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\ადმინისრაციული მოწყობა\აჭარა\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\ადმინისტრაციული მოწყობა ქარ EN\ადმინისრაციული მოწყობა\აჭარა\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>2022წ. 1 იანვრის მდგომარეობით, (ერთეული)</t>
-  </si>
-  <si>
-    <t>კოდი</t>
   </si>
   <si>
     <t>ქალაქი</t>
@@ -44,23 +41,14 @@
     <t xml:space="preserve"> სოფელი</t>
   </si>
   <si>
-    <t>268 15 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ქობულეთის მუნიციპალიტეტის ადმინისტრაციული მოწყობა </t>
-  </si>
-  <si>
-    <t>ადგილობრივი მმართველობის ერთეულის ადმინისტრაციული მდგომარეობა</t>
-  </si>
-  <si>
-    <t>მუნიციპალიტეტის ადმინისტრაციული ცენტრი  (ქალაქი ქობულეთი)</t>
+    <t>ქობულეთის მუნიციპალიტეტი</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,23 +71,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -158,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -167,24 +139,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,19 +428,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -498,51 +462,35 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>6</v>
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="7">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7">
+      <c r="B6" s="5">
         <v>48</v>
       </c>
     </row>
